--- a/scripts/menu.xlsx
+++ b/scripts/menu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62AE559-2D1C-438E-9D30-F9DED5E6DCBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA5FCC-7A2F-40D0-9010-AFCF24E6BB1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1356" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$52</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1413,10 +1413,11 @@
         <v>3</v>
       </c>
       <c r="H2" s="4">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4">
-        <v>47</v>
+        <f>H2*2</f>
+        <v>2</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
@@ -1450,10 +1451,11 @@
         <v>2</v>
       </c>
       <c r="H3" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I3" s="4">
-        <v>156</v>
+        <f t="shared" ref="I3:I51" si="0">H3*2</f>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -1487,10 +1489,11 @@
         <v>3</v>
       </c>
       <c r="H4" s="4">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="I4" s="4">
-        <v>61</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
@@ -1524,10 +1527,11 @@
         <v>3</v>
       </c>
       <c r="H5" s="4">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="I5" s="4">
-        <v>356</v>
+        <f>H5*2</f>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>12</v>
@@ -1561,10 +1565,11 @@
         <v>2</v>
       </c>
       <c r="H6" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I6" s="4">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>12</v>
@@ -1598,10 +1603,11 @@
         <v>3</v>
       </c>
       <c r="H7" s="4">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="I7" s="4">
-        <v>57</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>174</v>
@@ -1635,10 +1641,11 @@
         <v>3</v>
       </c>
       <c r="H8" s="4">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="I8" s="4">
-        <v>888</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>174</v>
@@ -1672,10 +1679,11 @@
         <v>3</v>
       </c>
       <c r="H9" s="4">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I9" s="4">
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>174</v>
@@ -1709,10 +1717,11 @@
         <v>4</v>
       </c>
       <c r="H10" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I10" s="4">
-        <v>169</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>174</v>
@@ -1746,10 +1755,11 @@
         <v>3</v>
       </c>
       <c r="H11" s="4">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="I11" s="4">
-        <v>345</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>174</v>
@@ -1783,10 +1793,11 @@
         <v>4</v>
       </c>
       <c r="H12" s="4">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="I12" s="4">
-        <v>1026</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>174</v>
@@ -1820,10 +1831,11 @@
         <v>2</v>
       </c>
       <c r="H13" s="4">
-        <v>356</v>
+        <v>12</v>
       </c>
       <c r="I13" s="4">
-        <v>958</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>174</v>
@@ -1857,10 +1869,11 @@
         <v>2</v>
       </c>
       <c r="H14" s="4">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I14" s="4">
-        <v>73</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>174</v>
@@ -1893,10 +1906,11 @@
         <v>3</v>
       </c>
       <c r="H15" s="4">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="I15" s="4">
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>174</v>
@@ -1930,10 +1944,11 @@
         <v>3</v>
       </c>
       <c r="H16" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I16" s="4">
-        <v>25</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>174</v>
@@ -1967,10 +1982,11 @@
         <v>4</v>
       </c>
       <c r="H17" s="4">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I17" s="4">
-        <v>56</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>215</v>
@@ -2004,10 +2020,11 @@
         <v>5</v>
       </c>
       <c r="H18" s="4">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="I18" s="4">
-        <v>555</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>215</v>
@@ -2041,10 +2058,11 @@
         <v>3</v>
       </c>
       <c r="H19" s="4">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I19" s="4">
-        <v>45</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>215</v>
@@ -2078,10 +2096,11 @@
         <v>5</v>
       </c>
       <c r="H20" s="4">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="I20" s="4">
-        <v>521</v>
+        <f t="shared" si="0"/>
+        <v>38</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>215</v>
@@ -2115,10 +2134,11 @@
         <v>4</v>
       </c>
       <c r="H21" s="4">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="I21" s="4">
-        <v>555</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>215</v>
@@ -2152,10 +2172,11 @@
         <v>1</v>
       </c>
       <c r="H22" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I22" s="4">
-        <v>233</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>215</v>
@@ -2192,7 +2213,8 @@
         <v>22</v>
       </c>
       <c r="I23" s="4">
-        <v>222</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>215</v>
@@ -2226,10 +2248,11 @@
         <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I24" s="4">
-        <v>333</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>215</v>
@@ -2263,10 +2286,11 @@
         <v>2</v>
       </c>
       <c r="H25" s="4">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I25" s="4">
-        <v>444</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>215</v>
@@ -2300,10 +2324,11 @@
         <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I26" s="4">
-        <v>555</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>215</v>
@@ -2335,11 +2360,12 @@
       <c r="G27" s="3">
         <v>3</v>
       </c>
-      <c r="H27" s="3">
-        <v>71</v>
-      </c>
-      <c r="I27" s="3">
-        <v>195</v>
+      <c r="H27" s="4">
+        <v>26</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="J27" t="s">
         <v>144</v>
@@ -2370,11 +2396,12 @@
       <c r="G28" s="3">
         <v>2</v>
       </c>
-      <c r="H28" s="3">
-        <v>23</v>
-      </c>
-      <c r="I28" s="3">
-        <v>79</v>
+      <c r="H28" s="4">
+        <v>27</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="J28" t="s">
         <v>144</v>
@@ -2405,11 +2432,12 @@
       <c r="G29" s="3">
         <v>2</v>
       </c>
-      <c r="H29" s="3">
-        <v>63</v>
-      </c>
-      <c r="I29" s="3">
-        <v>188</v>
+      <c r="H29" s="4">
+        <v>28</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="J29" t="s">
         <v>144</v>
@@ -2440,11 +2468,12 @@
       <c r="G30" s="3">
         <v>1</v>
       </c>
-      <c r="H30" s="3">
-        <v>55</v>
-      </c>
-      <c r="I30" s="3">
-        <v>123</v>
+      <c r="H30" s="4">
+        <v>29</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="J30" t="s">
         <v>144</v>
@@ -2475,11 +2504,12 @@
       <c r="G31" s="3">
         <v>2</v>
       </c>
-      <c r="H31" s="3">
-        <v>37</v>
-      </c>
-      <c r="I31" s="3">
-        <v>113</v>
+      <c r="H31" s="4">
+        <v>30</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
         <v>144</v>
@@ -2510,11 +2540,12 @@
       <c r="G32" s="3">
         <v>2</v>
       </c>
-      <c r="H32" s="3">
-        <v>49</v>
-      </c>
-      <c r="I32" s="3">
-        <v>164</v>
+      <c r="H32" s="4">
+        <v>31</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="J32" t="s">
         <v>93</v>
@@ -2545,11 +2576,12 @@
       <c r="G33" s="3">
         <v>3</v>
       </c>
-      <c r="H33" s="3">
-        <v>49</v>
-      </c>
-      <c r="I33" s="3">
-        <v>134</v>
+      <c r="H33" s="4">
+        <v>32</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="J33" t="s">
         <v>93</v>
@@ -2580,11 +2612,12 @@
       <c r="G34" s="3">
         <v>3</v>
       </c>
-      <c r="H34" s="3">
-        <v>13</v>
-      </c>
-      <c r="I34" s="3">
-        <v>67</v>
+      <c r="H34" s="4">
+        <v>33</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="J34" t="s">
         <v>93</v>
@@ -2615,11 +2648,12 @@
       <c r="G35" s="3">
         <v>2</v>
       </c>
-      <c r="H35" s="3">
-        <v>38</v>
-      </c>
-      <c r="I35" s="3">
-        <v>124</v>
+      <c r="H35" s="4">
+        <v>34</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="J35" t="s">
         <v>93</v>
@@ -2650,11 +2684,12 @@
       <c r="G36" s="3">
         <v>3</v>
       </c>
-      <c r="H36" s="3">
-        <v>14</v>
-      </c>
-      <c r="I36" s="3">
-        <v>85</v>
+      <c r="H36" s="4">
+        <v>35</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="J36" t="s">
         <v>93</v>
@@ -2685,11 +2720,12 @@
       <c r="G37" s="3">
         <v>1</v>
       </c>
-      <c r="H37" s="3">
-        <v>31</v>
-      </c>
-      <c r="I37" s="3">
-        <v>75</v>
+      <c r="H37" s="4">
+        <v>36</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="J37" t="s">
         <v>93</v>
@@ -2720,11 +2756,12 @@
       <c r="G38" s="3">
         <v>1</v>
       </c>
-      <c r="H38" s="3">
-        <v>16</v>
-      </c>
-      <c r="I38" s="3">
-        <v>80</v>
+      <c r="H38" s="4">
+        <v>37</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="0"/>
+        <v>74</v>
       </c>
       <c r="J38" t="s">
         <v>93</v>
@@ -2755,11 +2792,12 @@
       <c r="G39" s="3">
         <v>2</v>
       </c>
-      <c r="H39" s="3">
-        <v>34</v>
-      </c>
-      <c r="I39" s="3">
-        <v>106</v>
+      <c r="H39" s="4">
+        <v>38</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="J39" t="s">
         <v>93</v>
@@ -2790,11 +2828,12 @@
       <c r="G40" s="3">
         <v>3</v>
       </c>
-      <c r="H40" s="3">
-        <v>7</v>
-      </c>
-      <c r="I40" s="3">
-        <v>43</v>
+      <c r="H40" s="4">
+        <v>39</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="0"/>
+        <v>78</v>
       </c>
       <c r="J40" t="s">
         <v>93</v>
@@ -2825,11 +2864,12 @@
       <c r="G41" s="3">
         <v>3</v>
       </c>
-      <c r="H41" s="3">
-        <v>64</v>
-      </c>
-      <c r="I41" s="3">
-        <v>216</v>
+      <c r="H41" s="4">
+        <v>40</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="J41" t="s">
         <v>93</v>
@@ -2860,11 +2900,12 @@
       <c r="G42" s="3">
         <v>2</v>
       </c>
-      <c r="H42" s="3">
-        <v>10</v>
-      </c>
-      <c r="I42" s="3">
-        <v>15</v>
+      <c r="H42" s="4">
+        <v>41</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
       <c r="J42" t="s">
         <v>65</v>
@@ -2895,11 +2936,12 @@
       <c r="G43" s="3">
         <v>2</v>
       </c>
-      <c r="H43" s="3">
-        <v>32</v>
-      </c>
-      <c r="I43" s="3">
-        <v>50</v>
+      <c r="H43" s="4">
+        <v>42</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="0"/>
+        <v>84</v>
       </c>
       <c r="J43" t="s">
         <v>65</v>
@@ -2930,11 +2972,12 @@
       <c r="G44" s="3">
         <v>3</v>
       </c>
-      <c r="H44" s="3">
-        <v>10</v>
-      </c>
-      <c r="I44" s="3">
-        <v>25</v>
+      <c r="H44" s="4">
+        <v>43</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="0"/>
+        <v>86</v>
       </c>
       <c r="J44" t="s">
         <v>65</v>
@@ -2965,11 +3008,12 @@
       <c r="G45" s="3">
         <v>1</v>
       </c>
-      <c r="H45" s="3">
-        <v>21</v>
-      </c>
-      <c r="I45" s="3">
-        <v>34</v>
+      <c r="H45" s="4">
+        <v>44</v>
+      </c>
+      <c r="I45" s="4">
+        <f t="shared" si="0"/>
+        <v>88</v>
       </c>
       <c r="J45" t="s">
         <v>65</v>
@@ -3000,11 +3044,12 @@
       <c r="G46" s="3">
         <v>3</v>
       </c>
-      <c r="H46" s="3">
-        <v>11</v>
-      </c>
-      <c r="I46" s="3">
-        <v>38</v>
+      <c r="H46" s="4">
+        <v>45</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="0"/>
+        <v>90</v>
       </c>
       <c r="J46" t="s">
         <v>65</v>
@@ -3035,11 +3080,12 @@
       <c r="G47" s="3">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3">
-        <v>70</v>
+      <c r="H47" s="4">
+        <v>46</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
       <c r="J47" t="s">
         <v>41</v>
@@ -3070,11 +3116,12 @@
       <c r="G48" s="3">
         <v>3</v>
       </c>
-      <c r="H48" s="3">
-        <v>59</v>
-      </c>
-      <c r="I48" s="3">
-        <v>167</v>
+      <c r="H48" s="4">
+        <v>47</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="0"/>
+        <v>94</v>
       </c>
       <c r="J48" t="s">
         <v>41</v>
@@ -3105,11 +3152,12 @@
       <c r="G49" s="3">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>2</v>
-      </c>
-      <c r="I49" s="3">
-        <v>30</v>
+      <c r="H49" s="4">
+        <v>48</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
       <c r="J49" t="s">
         <v>41</v>
@@ -3140,11 +3188,12 @@
       <c r="G50" s="3">
         <v>4</v>
       </c>
-      <c r="H50" s="3">
-        <v>15</v>
-      </c>
-      <c r="I50" s="3">
-        <v>68</v>
+      <c r="H50" s="4">
+        <v>49</v>
+      </c>
+      <c r="I50" s="4">
+        <f t="shared" si="0"/>
+        <v>98</v>
       </c>
       <c r="J50" t="s">
         <v>41</v>
@@ -3175,11 +3224,12 @@
       <c r="G51" s="3">
         <v>1</v>
       </c>
-      <c r="H51" s="3">
-        <v>99</v>
-      </c>
-      <c r="I51" s="3">
-        <v>746</v>
+      <c r="H51" s="4">
+        <v>50</v>
+      </c>
+      <c r="I51" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="J51" t="s">
         <v>41</v>
@@ -3197,6 +3247,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L52" xr:uid="{F0D0F107-7C0D-47D2-95AD-EB5E2164E227}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
